--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.27260410976085</v>
+        <v>91.73031097916225</v>
       </c>
       <c r="D2" t="n">
-        <v>11.38409450956588</v>
+        <v>9.2894483719422</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.76213070264345</v>
+        <v>91.29526456002557</v>
       </c>
       <c r="D3" t="n">
-        <v>11.66659137260325</v>
+        <v>10.97295402144909</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.50496894495427</v>
+        <v>89.40432046858523</v>
       </c>
       <c r="D4" t="n">
-        <v>11.93123136830269</v>
+        <v>10.40474941555158</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>92.63126974795659</v>
+        <v>89.76958084993656</v>
       </c>
       <c r="D5" t="n">
-        <v>11.87212423964701</v>
+        <v>11.70649228894071</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.09783393368187</v>
+        <v>88.91484379387605</v>
       </c>
       <c r="D6" t="n">
-        <v>11.31354380077396</v>
+        <v>12.77054217036699</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.32187197488747</v>
+        <v>88.70561786536435</v>
       </c>
       <c r="D7" t="n">
-        <v>12.11976397802969</v>
+        <v>9.918156383856285</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.16122278704117</v>
+        <v>88.74390876011415</v>
       </c>
       <c r="D8" t="n">
-        <v>11.90010085499305</v>
+        <v>11.27597347725859</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.49030787265882</v>
+        <v>83.69625993097912</v>
       </c>
       <c r="D9" t="n">
-        <v>12.15970067037272</v>
+        <v>10.58325484303676</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.83056824829249</v>
+        <v>84.7136981733982</v>
       </c>
       <c r="D10" t="n">
-        <v>13.04867501849154</v>
+        <v>11.20411045161868</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.60158832004156</v>
+        <v>83.10247431577135</v>
       </c>
       <c r="D11" t="n">
-        <v>11.25778296512028</v>
+        <v>10.3638167098061</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.04994014189988</v>
+        <v>82.85560414227012</v>
       </c>
       <c r="D12" t="n">
-        <v>11.12754589313186</v>
+        <v>10.64840269202929</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.99014491426959</v>
+        <v>80.79059002541361</v>
       </c>
       <c r="D13" t="n">
-        <v>11.81019054606652</v>
+        <v>12.10193128318341</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.57584991976206</v>
+        <v>81.1040621019532</v>
       </c>
       <c r="D14" t="n">
-        <v>11.53315587001236</v>
+        <v>10.69651269075492</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.15366925452007</v>
+        <v>78.3091413944553</v>
       </c>
       <c r="D15" t="n">
-        <v>11.56863672409501</v>
+        <v>11.58571584630004</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.11323015721571</v>
+        <v>78.77699609803662</v>
       </c>
       <c r="D16" t="n">
-        <v>10.50919339698969</v>
+        <v>11.12117712738335</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.46105583744307</v>
+        <v>75.01084214362301</v>
       </c>
       <c r="D17" t="n">
-        <v>12.45516012658778</v>
+        <v>11.37762096726613</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.84065396955967</v>
+        <v>77.55047136822579</v>
       </c>
       <c r="D18" t="n">
-        <v>12.45832338652039</v>
+        <v>11.72024047267303</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.19050645661638</v>
+        <v>73.21060313550167</v>
       </c>
       <c r="D19" t="n">
-        <v>10.85356478047566</v>
+        <v>10.25218184929144</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.71067885548356</v>
+        <v>73.85300468118055</v>
       </c>
       <c r="D20" t="n">
-        <v>10.51680111917475</v>
+        <v>11.05576150125448</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.35591391267249</v>
+        <v>71.88872674182268</v>
       </c>
       <c r="D21" t="n">
-        <v>10.55832362404307</v>
+        <v>11.74844930176903</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.77242425323441</v>
+        <v>71.47717737468039</v>
       </c>
       <c r="D22" t="n">
-        <v>10.80258492766889</v>
+        <v>11.88401803244596</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.81060550802849</v>
+        <v>68.66145903627303</v>
       </c>
       <c r="D23" t="n">
-        <v>9.792794439126142</v>
+        <v>10.8115601849336</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97968945570274</v>
+        <v>68.03360023869831</v>
       </c>
       <c r="D24" t="n">
-        <v>11.18723735830518</v>
+        <v>9.997906062109593</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.54818992385333</v>
+        <v>67.10093696042829</v>
       </c>
       <c r="D25" t="n">
-        <v>10.68287285472567</v>
+        <v>10.54530303968349</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.64626623522234</v>
+        <v>67.85222138186988</v>
       </c>
       <c r="D26" t="n">
-        <v>12.32716047932732</v>
+        <v>10.40466169728013</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.13242980628577</v>
+        <v>67.74805976606928</v>
       </c>
       <c r="D27" t="n">
-        <v>10.50810779738068</v>
+        <v>10.3564858575359</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.28919420466063</v>
+        <v>63.42642550971368</v>
       </c>
       <c r="D28" t="n">
-        <v>12.04847146491698</v>
+        <v>12.11197021883141</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.87682393799861</v>
+        <v>63.53128156869766</v>
       </c>
       <c r="D29" t="n">
-        <v>10.52441665040598</v>
+        <v>10.98090516783609</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.63235489608404</v>
+        <v>63.6075675083345</v>
       </c>
       <c r="D30" t="n">
-        <v>10.78682657844165</v>
+        <v>10.01088644329371</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.99717310240234</v>
+        <v>61.23085402083623</v>
       </c>
       <c r="D31" t="n">
-        <v>10.7151236116051</v>
+        <v>10.66497609794296</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.69775414109249</v>
+        <v>62.17869258477729</v>
       </c>
       <c r="D32" t="n">
-        <v>10.77063770757739</v>
+        <v>11.19104167110109</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.4509464683781</v>
+        <v>61.39761539021342</v>
       </c>
       <c r="D33" t="n">
-        <v>11.15815692316061</v>
+        <v>11.23449799260065</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.84859373869263</v>
+        <v>60.57496583861754</v>
       </c>
       <c r="D34" t="n">
-        <v>10.55992848103019</v>
+        <v>10.71867141060424</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.11517444906828</v>
+        <v>56.07413150610917</v>
       </c>
       <c r="D35" t="n">
-        <v>11.87488152678695</v>
+        <v>11.40817628785488</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.19449114709506</v>
+        <v>56.83181526686982</v>
       </c>
       <c r="D36" t="n">
-        <v>10.80095849384335</v>
+        <v>11.55423254188176</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.651494887852</v>
+        <v>56.75930291838225</v>
       </c>
       <c r="D37" t="n">
-        <v>11.34666286214301</v>
+        <v>9.993536125106646</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.25555572531578</v>
+        <v>56.13033809545038</v>
       </c>
       <c r="D38" t="n">
-        <v>12.01698499135081</v>
+        <v>11.29717386446113</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.78595621843517</v>
+        <v>51.92788935704814</v>
       </c>
       <c r="D39" t="n">
-        <v>11.7451194697884</v>
+        <v>10.31474085221724</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>54.9435058667389</v>
+        <v>52.42330620791163</v>
       </c>
       <c r="D40" t="n">
-        <v>12.59014363667266</v>
+        <v>9.760843394841199</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.06782669588067</v>
+        <v>52.54667946948516</v>
       </c>
       <c r="D41" t="n">
-        <v>11.97175695135561</v>
+        <v>10.89993025597404</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.0417945611102</v>
+        <v>49.77727787109191</v>
       </c>
       <c r="D42" t="n">
-        <v>11.8811995792113</v>
+        <v>9.367109654985414</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.88548438288151</v>
+        <v>50.6450133308004</v>
       </c>
       <c r="D43" t="n">
-        <v>12.38890975148966</v>
+        <v>11.51366324990967</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.71643277827457</v>
+        <v>48.71991653040709</v>
       </c>
       <c r="D44" t="n">
-        <v>9.224195374768355</v>
+        <v>11.96611098606241</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.49328376042263</v>
+        <v>47.50753727734985</v>
       </c>
       <c r="D45" t="n">
-        <v>11.30590995120121</v>
+        <v>11.50358539849475</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.67944859502033</v>
+        <v>45.02381528860094</v>
       </c>
       <c r="D46" t="n">
-        <v>10.73118763155242</v>
+        <v>11.11052081754262</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.75842718230034</v>
+        <v>45.45307485723583</v>
       </c>
       <c r="D47" t="n">
-        <v>11.01261432910052</v>
+        <v>10.72188243614991</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.41127052513657</v>
+        <v>43.30061511961572</v>
       </c>
       <c r="D48" t="n">
-        <v>11.79162394162735</v>
+        <v>12.04344991245596</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.84087841112243</v>
+        <v>42.36174201246512</v>
       </c>
       <c r="D49" t="n">
-        <v>10.21715292810717</v>
+        <v>11.21269337794444</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.0539311422956</v>
+        <v>43.05319660178098</v>
       </c>
       <c r="D50" t="n">
-        <v>11.32347225659749</v>
+        <v>10.72733700444574</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.57914248941132</v>
+        <v>42.37050010783756</v>
       </c>
       <c r="D51" t="n">
-        <v>11.52990095390149</v>
+        <v>10.16525644659331</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.93866394448852</v>
+        <v>40.58001373245364</v>
       </c>
       <c r="D52" t="n">
-        <v>10.60223765682986</v>
+        <v>11.35572949878251</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.54325800173869</v>
+        <v>37.6105779710855</v>
       </c>
       <c r="D53" t="n">
-        <v>11.00621279282392</v>
+        <v>11.84286679602553</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.69456215845372</v>
+        <v>38.15271343509728</v>
       </c>
       <c r="D54" t="n">
-        <v>11.61419249268066</v>
+        <v>11.08495203963539</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.94351464594189</v>
+        <v>35.79849746117755</v>
       </c>
       <c r="D55" t="n">
-        <v>10.86722980551933</v>
+        <v>10.30658714764816</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.32986136014346</v>
+        <v>34.7304962545325</v>
       </c>
       <c r="D56" t="n">
-        <v>11.07919551048763</v>
+        <v>9.929006577698047</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.2965932725475</v>
+        <v>35.76206208399081</v>
       </c>
       <c r="D57" t="n">
-        <v>9.506579125742665</v>
+        <v>10.64258529183186</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.70970420080946</v>
+        <v>35.10181087566068</v>
       </c>
       <c r="D58" t="n">
-        <v>11.23483856875974</v>
+        <v>10.4287347322952</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.82453473719263</v>
+        <v>32.17086917852936</v>
       </c>
       <c r="D59" t="n">
-        <v>11.2110004738191</v>
+        <v>9.399027405436845</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.55710566892044</v>
+        <v>32.92965038790285</v>
       </c>
       <c r="D60" t="n">
-        <v>11.40571510194234</v>
+        <v>11.68319494977262</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.68503032587966</v>
+        <v>32.49780684079416</v>
       </c>
       <c r="D61" t="n">
-        <v>10.10384733447889</v>
+        <v>9.433213742791144</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.20782380235362</v>
+        <v>28.32147919365917</v>
       </c>
       <c r="D62" t="n">
-        <v>10.45486751358761</v>
+        <v>11.58229285811645</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.0235435848911</v>
+        <v>28.81082983116043</v>
       </c>
       <c r="D63" t="n">
-        <v>10.04843962072815</v>
+        <v>10.6668307121682</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.2524677092</v>
+        <v>28.45451445265387</v>
       </c>
       <c r="D64" t="n">
-        <v>10.63258801772891</v>
+        <v>10.37000946629349</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.03871702414787</v>
+        <v>28.22704095102497</v>
       </c>
       <c r="D65" t="n">
-        <v>11.78296094742881</v>
+        <v>11.1682099965309</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.32272837081131</v>
+        <v>25.56412269730947</v>
       </c>
       <c r="D66" t="n">
-        <v>11.17286505448076</v>
+        <v>9.779642841800786</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.75036499727301</v>
+        <v>25.61642892767782</v>
       </c>
       <c r="D67" t="n">
-        <v>11.55250811454428</v>
+        <v>10.76086552761981</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.59930018498832</v>
+        <v>24.31368924582829</v>
       </c>
       <c r="D68" t="n">
-        <v>11.372079421523</v>
+        <v>11.65336981653878</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.49772276549557</v>
+        <v>24.3431392166628</v>
       </c>
       <c r="D69" t="n">
-        <v>9.426900207412192</v>
+        <v>13.4827355808026</v>
       </c>
     </row>
   </sheetData>
